--- a/prisma/staticfile/role.xlsx
+++ b/prisma/staticfile/role.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work (Stream IT)\OSP\TLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8986FF7A-10AD-4297-AA07-537D62CE7809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C69D90B-DEAB-4EBB-86EE-2D2122EE4B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26790" yWindow="3300" windowWidth="20415" windowHeight="13440" xr2:uid="{1801F8F6-CEF0-48D6-99BA-D22EDF455927}"/>
+    <workbookView xWindow="18720" yWindow="4725" windowWidth="20415" windowHeight="13440" xr2:uid="{1801F8F6-CEF0-48D6-99BA-D22EDF455927}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -54,18 +54,6 @@
     <t>REQ_HEAD</t>
   </si>
   <si>
-    <t>LAB_OFF</t>
-  </si>
-  <si>
-    <t>LAB_LEAD</t>
-  </si>
-  <si>
-    <t>LAB_HEAD</t>
-  </si>
-  <si>
-    <t>LAB_ADMIN</t>
-  </si>
-  <si>
     <t>QC</t>
   </si>
   <si>
@@ -78,19 +66,73 @@
     <t>Head of Requester</t>
   </si>
   <si>
-    <t>Lab Officer</t>
-  </si>
-  <si>
-    <t>Lab Lead</t>
-  </si>
-  <si>
-    <t>Head of Lab</t>
-  </si>
-  <si>
-    <t>Lab Admin</t>
-  </si>
-  <si>
     <t>IT Support</t>
+  </si>
+  <si>
+    <t>L_OFF_AY</t>
+  </si>
+  <si>
+    <t>L_OFF_HM</t>
+  </si>
+  <si>
+    <t>L_OFF_HCC</t>
+  </si>
+  <si>
+    <t>L_LEAD_AY</t>
+  </si>
+  <si>
+    <t>L_LEAD_HM</t>
+  </si>
+  <si>
+    <t>L_LEAD_HCC</t>
+  </si>
+  <si>
+    <t>L_HEAD_AY</t>
+  </si>
+  <si>
+    <t>L_HEAD_HM</t>
+  </si>
+  <si>
+    <t>L_HEAD_HCC</t>
+  </si>
+  <si>
+    <t>Lab Officer AY</t>
+  </si>
+  <si>
+    <t>Lab Officer HM</t>
+  </si>
+  <si>
+    <t>Lab Officer HCC</t>
+  </si>
+  <si>
+    <t>Lab Lead AY</t>
+  </si>
+  <si>
+    <t>Lab Lead HM</t>
+  </si>
+  <si>
+    <t>Lab Lead HCC</t>
+  </si>
+  <si>
+    <t>Head of Lab AY</t>
+  </si>
+  <si>
+    <t>Head of Lab HM</t>
+  </si>
+  <si>
+    <t>Head of Lab HCC</t>
+  </si>
+  <si>
+    <t>Lab Admin AY</t>
+  </si>
+  <si>
+    <t>Lab Admin HM</t>
+  </si>
+  <si>
+    <t>L_AD_AY</t>
+  </si>
+  <si>
+    <t>L_AD_HM</t>
   </si>
 </sst>
 </file>
@@ -442,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD66A24-84C3-4E97-8EE7-F83CFE2998F9}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -490,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -498,13 +540,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -512,13 +554,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -526,13 +568,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -540,13 +582,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -554,13 +596,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -568,15 +610,113 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="b">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="b">
         <v>1</v>
       </c>
     </row>

--- a/prisma/staticfile/role.xlsx
+++ b/prisma/staticfile/role.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work (Stream IT)\OSP\TLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C69D90B-DEAB-4EBB-86EE-2D2122EE4B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBA4693-F967-4437-A3E6-D57C95797ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18720" yWindow="4725" windowWidth="20415" windowHeight="13440" xr2:uid="{1801F8F6-CEF0-48D6-99BA-D22EDF455927}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -69,70 +69,28 @@
     <t>IT Support</t>
   </si>
   <si>
-    <t>L_OFF_AY</t>
-  </si>
-  <si>
-    <t>L_OFF_HM</t>
-  </si>
-  <si>
-    <t>L_OFF_HCC</t>
-  </si>
-  <si>
-    <t>L_LEAD_AY</t>
-  </si>
-  <si>
-    <t>L_LEAD_HM</t>
-  </si>
-  <si>
-    <t>L_LEAD_HCC</t>
-  </si>
-  <si>
-    <t>L_HEAD_AY</t>
-  </si>
-  <si>
-    <t>L_HEAD_HM</t>
-  </si>
-  <si>
-    <t>L_HEAD_HCC</t>
-  </si>
-  <si>
-    <t>Lab Officer AY</t>
-  </si>
-  <si>
-    <t>Lab Officer HM</t>
-  </si>
-  <si>
-    <t>Lab Officer HCC</t>
-  </si>
-  <si>
-    <t>Lab Lead AY</t>
-  </si>
-  <si>
-    <t>Lab Lead HM</t>
-  </si>
-  <si>
-    <t>Lab Lead HCC</t>
-  </si>
-  <si>
-    <t>Head of Lab AY</t>
-  </si>
-  <si>
-    <t>Head of Lab HM</t>
-  </si>
-  <si>
-    <t>Head of Lab HCC</t>
-  </si>
-  <si>
-    <t>Lab Admin AY</t>
-  </si>
-  <si>
-    <t>Lab Admin HM</t>
-  </si>
-  <si>
-    <t>L_AD_AY</t>
-  </si>
-  <si>
-    <t>L_AD_HM</t>
+    <t>LAB_OFF</t>
+  </si>
+  <si>
+    <t>LAB_LEAD</t>
+  </si>
+  <si>
+    <t>LAB_HEAD</t>
+  </si>
+  <si>
+    <t>LAB_ADMIN</t>
+  </si>
+  <si>
+    <t>Lab Admin</t>
+  </si>
+  <si>
+    <t>Head of Lab</t>
+  </si>
+  <si>
+    <t>Lab Lead</t>
+  </si>
+  <si>
+    <t>Lab Officer</t>
   </si>
 </sst>
 </file>
@@ -484,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD66A24-84C3-4E97-8EE7-F83CFE2998F9}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -560,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -574,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -588,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -596,13 +554,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -610,113 +568,15 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="b">
         <v>1</v>
       </c>
     </row>
